--- a/app/data/absenteeism_data_39.xlsx
+++ b/app/data/absenteeism_data_39.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6757</v>
+        <v>94582</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maria Luiza Lopes</t>
+          <t>Gustavo Campos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,27 +494,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45085</v>
+        <v>45096</v>
       </c>
       <c r="G2" t="n">
-        <v>5603.89</v>
+        <v>12447.97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50197</v>
+        <v>49998</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. Cauã Almeida</t>
+          <t>Alexandre Costa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,245 +523,245 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="G3" t="n">
-        <v>3997.73</v>
+        <v>6808.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>82700</v>
+        <v>57452</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Augusto Nunes</t>
+          <t>Manuela Fogaça</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45079</v>
       </c>
       <c r="G4" t="n">
-        <v>8218.76</v>
+        <v>12059.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>53436</v>
+        <v>69626</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pietro Pinto</t>
+          <t>João Vitor Fernandes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45091</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>7420.26</v>
+        <v>10971.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>56786</v>
+        <v>69539</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nathan Moura</t>
+          <t>Ana Beatriz Nascimento</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45096</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>3465.28</v>
+        <v>5843.19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>87105</v>
+        <v>98168</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maria Cunha</t>
+          <t>Lucas Cardoso</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45092</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>5799.78</v>
+        <v>8161.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17589</v>
+        <v>768</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nathan Gonçalves</t>
+          <t>Daniel Fogaça</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45085</v>
       </c>
       <c r="G8" t="n">
-        <v>7962.3</v>
+        <v>9141.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9138</v>
+        <v>36287</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Enrico Aragão</t>
+          <t>Srta. Maysa Barros</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45080</v>
+        <v>45078</v>
       </c>
       <c r="G9" t="n">
-        <v>5475.56</v>
+        <v>5553.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>94488</v>
+        <v>37129</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alexandre Nunes</t>
+          <t>Sra. Valentina Santos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="G10" t="n">
-        <v>6194.83</v>
+        <v>4433.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>85875</v>
+        <v>87742</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Manuela Cardoso</t>
+          <t>João Lucas Sales</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45100</v>
+        <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>11928.53</v>
+        <v>8973.389999999999</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_39.xlsx
+++ b/app/data/absenteeism_data_39.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80647</v>
+        <v>17506</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bruno Rocha</t>
+          <t>Sr. Leandro Fernandes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,60 +490,60 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="G2" t="n">
-        <v>8746.67</v>
+        <v>5420.94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50844</v>
+        <v>91897</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Gonçalves</t>
+          <t>Yasmin Jesus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45105</v>
+        <v>45082</v>
       </c>
       <c r="G3" t="n">
-        <v>11505.84</v>
+        <v>9295.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11996</v>
+        <v>13791</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Vitória Pinto</t>
+          <t>Noah Barbosa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,201 +552,201 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45106</v>
+        <v>45103</v>
       </c>
       <c r="G4" t="n">
-        <v>10750.29</v>
+        <v>6228.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73151</v>
+        <v>51740</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Renan Fernandes</t>
+          <t>Alana Sales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>3689.45</v>
+        <v>3907.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>40790</v>
+        <v>78863</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mariana Lima</t>
+          <t>Vitória Silveira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45094</v>
+        <v>45096</v>
       </c>
       <c r="G6" t="n">
-        <v>5725.9</v>
+        <v>8264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>62780</v>
+        <v>63623</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alexia Moraes</t>
+          <t>Sr. Augusto Fogaça</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45106</v>
+        <v>45091</v>
       </c>
       <c r="G7" t="n">
-        <v>10834.33</v>
+        <v>10934.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11666</v>
+        <v>53928</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Isis Cardoso</t>
+          <t>Elisa Gonçalves</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45089</v>
+        <v>45079</v>
       </c>
       <c r="G8" t="n">
-        <v>7070.19</v>
+        <v>10324.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5880</v>
+        <v>62583</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luiz Felipe das Neves</t>
+          <t>Clara Azevedo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45089</v>
+        <v>45085</v>
       </c>
       <c r="G9" t="n">
-        <v>7228.41</v>
+        <v>9648.57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>37052</v>
+        <v>74981</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alícia Pires</t>
+          <t>Emanuel Almeida</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45100</v>
+        <v>45097</v>
       </c>
       <c r="G10" t="n">
-        <v>4882.67</v>
+        <v>8524.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>72382</v>
+        <v>72457</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Davi Lucca Pinto</t>
+          <t>Sr. Theo da Luz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45082</v>
+        <v>45092</v>
       </c>
       <c r="G11" t="n">
-        <v>7930.85</v>
+        <v>5712.36</v>
       </c>
     </row>
   </sheetData>
